--- a/Test_Spec/TestSpec.xlsx
+++ b/Test_Spec/TestSpec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1895\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jeevan\newProject\Temprature_Monitoring\Test_Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6656060-7AFB-47FA-A36C-DD3FAAC63750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0232C-0EA1-40BE-A545-406E21A80348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{755E2DAD-E6DB-4113-92C2-7AFBCF263D1D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>SL No</t>
   </si>
@@ -94,6 +93,18 @@
   </si>
   <si>
     <t xml:space="preserve">The system print the over bound warning message "Pressure Sensor Overbound Detected! System Failure!". </t>
+  </si>
+  <si>
+    <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Set the Checking interval of the temperature to 5sec                                                                                                                                                      4. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>The system print the temperature read value in 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Set the Checking interval of the pressure to 10sec                                                                                                                                                      4. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>The system print the temperature read value in 10 seconds</t>
   </si>
 </sst>
 </file>
@@ -129,16 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B468005-CE05-4E27-BE17-9E74F4C8C2F7}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,327 +501,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>8</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>9</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>10</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>11</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C29"/>
+  <mergeCells count="36">
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C2:C5"/>
@@ -818,18 +904,14 @@
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test_Spec/TestSpec.xlsx
+++ b/Test_Spec/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jeevan\newProject\Temprature_Monitoring\Test_Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0232C-0EA1-40BE-A545-406E21A80348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A5886-D83A-4457-A5C7-7E8C045A19D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{755E2DAD-E6DB-4113-92C2-7AFBCF263D1D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>SL No</t>
   </si>
@@ -53,12 +53,6 @@
     <t>1. Turn on the device                                                                                                                        2. Increase the temperature to 100 degree celsius                                                                                         3. Monitor the warning message print by the system</t>
   </si>
   <si>
-    <t>1. Turn on the device                                                                                                                           2. Keep the temperature in the range of -20 to 70 degrees celsius                                                                                        3. Monitor the warning message print by the system</t>
-  </si>
-  <si>
-    <t>1. Turn on the device                                                                                                                           2. Keep the pressure in the range of 0 to 100 degrees celsius                                                                                        3. Monitor the warning message print by the system</t>
-  </si>
-  <si>
     <t>1. Turn on the device                                                                                                                         2. Reduce the pressure to -10 PSI                                                                                             3. Monitor the warning message print by the system</t>
   </si>
   <si>
@@ -68,43 +62,52 @@
     <t>The system will show the warning message "Out of Range" with corresponding temperature, date and timestamp</t>
   </si>
   <si>
-    <t>The system will not show any warning message or output anything</t>
-  </si>
-  <si>
     <t>The system will show the warning message "Out of Range" with corresponding pressure, date and timestamp</t>
   </si>
   <si>
     <t>1. Turn on the device                                                                                                                           2.Decrease the temperature below operating temperature -20 degree  celsius                                                                                                                                                     3. Monitor the warning message print by the system</t>
   </si>
   <si>
-    <t>The system print the over bound warning message "Temperature Sensor Overbound Detected! System Failure!"</t>
-  </si>
-  <si>
-    <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Decrease the pressure below operating pressure -10 PSI                                                                                                                                                     4. Monitor the warning message print by the system</t>
-  </si>
-  <si>
-    <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Increase the pressure above operating temperature 200 PSI                                                                                                                                                     4. Monitor the warning message print by the system</t>
-  </si>
-  <si>
-    <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Increase the temperature above operating temperature 150 degree  celsius                                                                                                                                                     4. Monitor the warning message print by the system</t>
-  </si>
-  <si>
-    <t>The system print the over bound warning message "Pressure Sensor Overbound Detected! System Failure!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system print the over bound warning message "Pressure Sensor Overbound Detected! System Failure!". </t>
-  </si>
-  <si>
     <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Set the Checking interval of the temperature to 5sec                                                                                                                                                      4. Monitor the warning message print by the system</t>
   </si>
   <si>
-    <t>The system print the temperature read value in 5 seconds</t>
-  </si>
-  <si>
     <t>1. Enable debug mode                                                                                                                                   2. Turn on the device                                                                                                                           3. Set the Checking interval of the pressure to 10sec                                                                                                                                                      4. Monitor the warning message print by the system</t>
   </si>
   <si>
-    <t>The system print the temperature read value in 10 seconds</t>
+    <t>The system print the temperature read value after 5 seconds</t>
+  </si>
+  <si>
+    <t>The system print the temperature read value after 6 seconds</t>
+  </si>
+  <si>
+    <t>The system print the over bound warning message "Sensor Overbound Detected!" with corresponding pressure value.</t>
+  </si>
+  <si>
+    <t>1. Turn on the device                                                                                                                           2. Decrease the pressure below operating pressure -10 PSI                                                                                                                                                     3. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>1. Turn on the device                                                                                                                           2. Increase the pressure above operating temperature 200 PSI                                                                                                                                                     3. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>1. Turn on the device                                                                                                                           2. Increase the temperature above operating temperature 150 degree  celsius                                                                                                                                                     3. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>1. Enable debug mode                                                                                                                 2. Turn on the device                                                                                                                           3. Keep the temperature in the range of -20 to 70 degrees celsius                                                                                        4. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>1. Enable Debug mode                                                                                                                                                                2. Turn on the device                                                                                                                           3. Keep the pressure in the range of 0 to 100 degrees celsius                                                                                        4. Monitor the warning message print by the system</t>
+  </si>
+  <si>
+    <t>The system will print the corresponding temperature read value without any warnings.</t>
+  </si>
+  <si>
+    <t>The system will print the corresponding pressure read value without any warnings.</t>
+  </si>
+  <si>
+    <t>The system print the over bound warning message "Sensor Overbound Detected!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system print the over bound warning message "Sensor Overbound Detected!". </t>
   </si>
 </sst>
 </file>
@@ -146,13 +149,13 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +494,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C59"/>
+      <selection activeCell="C40" sqref="C40:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,13 +504,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -515,385 +518,375 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>9</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>10</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>11</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>20</v>
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>12</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>22</v>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C2:C5"/>
@@ -904,14 +897,24 @@
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
